--- a/outputs/省级功能巡检.xlsx
+++ b/outputs/省级功能巡检.xlsx
@@ -7,8 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="广西省" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="广西省1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="广西省" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -414,7 +415,25 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -705,19 +724,19 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>环境气象-逐日数据列表</t>
+          <t>页面</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>正常</t>
+          <t>检测结果</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>性诱监测-性诱数据分析</t>
+          <t>首页</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -729,7 +748,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>性诱监测-数据统计列表</t>
+          <t>数据填报-工作平台</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -741,7 +760,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>性诱监测-性诱数据统计</t>
+          <t>数据填报-任务填报</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -753,19 +772,19 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>性诱监测-趋势分析</t>
+          <t>数据填报-数据查询</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>异常</t>
+          <t>正常</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>物联网-灯诱监测-灯诱数据分析</t>
+          <t>数据填报-数据汇总</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -777,7 +796,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>物联网-灯诱监测-数据统计列表</t>
+          <t>数据填报-催报查询</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -789,7 +808,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>物联网-灯诱监测-灯诱图片展示</t>
+          <t>数据填报-报送评价</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -801,7 +820,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>物联网-灯诱监测-灯诱识别结果统计</t>
+          <t>数据填报-填报任务一览</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -813,7 +832,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>物联网-灯诱监测-趋势分析</t>
+          <t>数据填报-汇总统计</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -825,7 +844,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>物联网-病害监测-马铃薯晚疫病</t>
+          <t>数据填报-汇总统计</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -837,7 +856,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>物联网-病害监测-小麦赤霉病</t>
+          <t>数据填报-特色表分析</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -849,7 +868,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>物联网-病害监测-孢子监测</t>
+          <t>系统管理-报表权限管理</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -861,7 +880,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>物联网-虫量对比分析</t>
+          <t>系统管理-用户管理</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -873,7 +892,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>物联网-物联网管理-设备管理</t>
+          <t>系统管理-填报任务设置</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -885,7 +904,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>物联网-物联网管理-监测点管理</t>
+          <t>系统管理-专业分析配置</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -897,7 +916,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>物联网-视频监控-视频监控分布</t>
+          <t>物联网-工作平台</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -909,10 +928,286 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
+          <t>物联网-监测点分布</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>物联网-设备分布</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>环境气象-趋势分析</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>环境气象-实时数据列表</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>环境气象-实时数据统计</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>环境气象-逐日数据统计</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>环境气象-逐日数据列表</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>性诱监测-性诱数据分析</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>性诱监测-数据统计列表</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>性诱监测-性诱数据统计</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>性诱监测-趋势分析</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>异常</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>物联网-灯诱监测-灯诱数据分析</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>物联网-灯诱监测-数据统计列表</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>物联网-灯诱监测-灯诱图片展示</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>物联网-灯诱监测-灯诱识别结果统计</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>物联网-灯诱监测-趋势分析</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>物联网-病害监测-马铃薯晚疫病</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>物联网-病害监测-小麦赤霉病</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>物联网-病害监测-孢子监测</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>物联网-虫量对比分析</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>物联网-物联网管理-设备管理</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>物联网-物联网管理-监测点管理</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>物联网-视频监控-视频监控分布</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
           <t>物联网-视频监控-视频图片展示</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B64" t="inlineStr">
         <is>
           <t>正常</t>
         </is>
@@ -923,7 +1218,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/outputs/省级功能巡检.xlsx
+++ b/outputs/省级功能巡检.xlsx
@@ -7,9 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="广西省1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="广西省" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Sheet" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="广西省" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -415,25 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B64"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -724,19 +705,19 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>页面</t>
+          <t>环境气象-逐日数据列表</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>检测结果</t>
+          <t>正常</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>首页</t>
+          <t>性诱监测-性诱数据分析</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -748,7 +729,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>数据填报-工作平台</t>
+          <t>性诱监测-数据统计列表</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -760,7 +741,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>数据填报-任务填报</t>
+          <t>性诱监测-性诱数据统计</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -772,7 +753,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>数据填报-数据查询</t>
+          <t>性诱监测-趋势分析</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -784,7 +765,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>数据填报-数据汇总</t>
+          <t>物联网-灯诱监测-灯诱数据分析</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -796,7 +777,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>数据填报-催报查询</t>
+          <t>物联网-灯诱监测-数据统计列表</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -808,7 +789,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>数据填报-报送评价</t>
+          <t>物联网-灯诱监测-灯诱图片展示</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -820,7 +801,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>数据填报-填报任务一览</t>
+          <t>物联网-灯诱监测-灯诱识别结果统计</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -832,7 +813,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>数据填报-汇总统计</t>
+          <t>物联网-灯诱监测-趋势分析</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -844,7 +825,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>数据填报-汇总统计</t>
+          <t>物联网-病害监测-马铃薯晚疫病</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -856,7 +837,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>数据填报-特色表分析</t>
+          <t>物联网-病害监测-小麦赤霉病</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -868,7 +849,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>系统管理-报表权限管理</t>
+          <t>物联网-病害监测-孢子监测</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -880,7 +861,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>系统管理-用户管理</t>
+          <t>物联网-虫量对比分析</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -892,7 +873,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>系统管理-填报任务设置</t>
+          <t>物联网-物联网管理-设备管理</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -904,7 +885,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>系统管理-专业分析配置</t>
+          <t>物联网-物联网管理-监测点管理</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -916,7 +897,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>物联网-工作平台</t>
+          <t>物联网-视频监控-视频监控分布</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -928,7 +909,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>物联网-监测点分布</t>
+          <t>物联网-视频监控-视频图片展示</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -940,7 +921,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>物联网-设备分布</t>
+          <t>模型预警</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -952,262 +933,10 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>环境气象-趋势分析</t>
+          <t>数据分析-综合分析</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
-        <is>
-          <t>正常</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>环境气象-实时数据列表</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>正常</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>环境气象-实时数据统计</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>正常</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>环境气象-逐日数据统计</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>正常</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>环境气象-逐日数据列表</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>正常</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>性诱监测-性诱数据分析</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>正常</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>性诱监测-数据统计列表</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>正常</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>性诱监测-性诱数据统计</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>正常</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>性诱监测-趋势分析</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>物联网-灯诱监测-灯诱数据分析</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>正常</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>物联网-灯诱监测-数据统计列表</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>正常</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>物联网-灯诱监测-灯诱图片展示</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>正常</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>物联网-灯诱监测-灯诱识别结果统计</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>正常</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>物联网-灯诱监测-趋势分析</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>正常</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>物联网-病害监测-马铃薯晚疫病</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>正常</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>物联网-病害监测-小麦赤霉病</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>正常</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>物联网-病害监测-孢子监测</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>正常</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>物联网-虫量对比分析</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>正常</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>物联网-物联网管理-设备管理</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>正常</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>物联网-物联网管理-监测点管理</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>正常</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>物联网-视频监控-视频监控分布</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>正常</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>物联网-视频监控-视频图片展示</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
         <is>
           <t>正常</t>
         </is>
@@ -1218,7 +947,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/outputs/省级功能巡检.xlsx
+++ b/outputs/省级功能巡检.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -937,6 +937,66 @@
         </is>
       </c>
       <c r="B43" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>数据分析-专题分析</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>数据分析-GIS分析</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>数据分析-自定义分析</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>数据分析-数据报告</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>知识库-工作平台</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
         <is>
           <t>正常</t>
         </is>

--- a/outputs/省级功能巡检.xlsx
+++ b/outputs/省级功能巡检.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -878,7 +878,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>正常</t>
+          <t>异常</t>
         </is>
       </c>
     </row>
@@ -997,6 +997,294 @@
         </is>
       </c>
       <c r="B48" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>知识库-病虫害知识库-知识浏览</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>知识库-病虫害知识库-知识维护</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>知识库-植保知识库-知识浏览</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>知识库-植保知识库-知识审核</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>知识库-植保知识库-知识上传</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>知识库-资料库</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>知识库-作物知识库-知识浏览</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>知识库-作物知识库-知识维护</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>办公应用-工作平台</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>办公应用-文件收发管理-收件箱</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>办公应用-文件收发管理-草稿箱</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>办公应用-文件收发管理-发件箱</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>办公应用-病虫害情报-情报管理</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>办公应用-病虫害情报-情报库检索</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>办公应用-病虫害情报-情报统计</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>办公应用-新闻管理-新闻浏览</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>办公应用-新闻管理-新闻上传</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>办公应用-视频会议-会议管理</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>办公应用-视频会议-我的会议</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>办公应用-通知公告-公告管理</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>办公应用-通知公告-公告查阅</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>办公应用-工作总结</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>办公应用-业务考核-报送统计</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>办公应用-业务考核-考核统计</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
         <is>
           <t>正常</t>
         </is>

--- a/outputs/省级功能巡检.xlsx
+++ b/outputs/省级功能巡检.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B307"/>
+  <dimension ref="A1:B184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,7 +440,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="42" customWidth="1" min="1" max="1"/>
+    <col width="45" customWidth="1" min="1" max="1"/>
     <col width="24" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
@@ -471,7 +471,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>数据填报-工作平台</t>
+          <t>植物检疫-产地检疫-产检申请页</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -483,7 +483,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>数据填报-任务填报</t>
+          <t>植物检疫-产地检疫-产检受理页</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -495,7 +495,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>数据填报-数据查询</t>
+          <t>植物检疫-产地检疫-田间调查页</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -507,7 +507,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>数据填报-数据汇总</t>
+          <t>植物检疫-产地检疫-实验室检验页</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -519,7 +519,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>数据填报-催报查询</t>
+          <t>植物检疫-产地检疫-签发证书页</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -531,7 +531,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>数据填报-报送评价</t>
+          <t>植物检疫-产地检疫-产检查询页</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -543,31 +543,31 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>数据填报-填报任务一览</t>
+          <t>植物检疫-产地检疫-综合查询页</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>正常</t>
+          <t>异常</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>数据填报-填报任务设置</t>
+          <t>调运检疫-检疫要求书</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>正常</t>
+          <t>异常</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>数据填报-任务审核</t>
+          <t>调运检疫-调检申请-产检换证</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -579,7 +579,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>植保体系-植保机构信息上报</t>
+          <t>调运检疫-调检申请-再次调运</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -591,7 +591,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>植保体系-植保人员管理-植保人员信息上报</t>
+          <t>调运检疫-调检申请-直接调运</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -603,7 +603,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>植保体系-植保人员管理-乡镇植保人员信息上报</t>
+          <t>调运检疫-调检受理</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -615,7 +615,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>植保体系-植保人员管理-村级植保员信息上报</t>
+          <t>调运检疫-检疫检查</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -627,7 +627,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>植保体系-数据审核</t>
+          <t>调运检疫-实验室检验</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -639,7 +639,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>植保体系-数据查询-机构查询</t>
+          <t>调运检疫-签发证书</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -651,7 +651,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>植保体系-数据查询-人员查询</t>
+          <t>调运检疫-调检查询</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -663,19 +663,19 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>植保体系-数据查询-通讯录查询</t>
+          <t>调运检疫-综合查询</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>正常</t>
+          <t>异常</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>植保体系-数据统计-数据统计</t>
+          <t>国外引种-引种申请</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -687,7 +687,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>植保体系-数据统计-汇总统计-机构信息统计</t>
+          <t>国外引种-引种预审</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -699,7 +699,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>植保体系-数据统计-汇总统计-植保机构统计</t>
+          <t>国外引种-引种受理</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -711,7 +711,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>植保体系-数据统计-汇总统计-机构类别统计</t>
+          <t>国外引种-审批签发</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -723,7 +723,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>植保体系-数据统计-汇总统计-人员年龄统计</t>
+          <t>国外引种-引种查询</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -735,7 +735,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>植保体系-数据统计-汇总统计-人员学历统计</t>
+          <t>国外引种-引种跟踪</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -747,7 +747,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>植保体系-数据统计-汇总统计-填报进度统计</t>
+          <t>国外引种-引种田调</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -759,19 +759,19 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>植物检疫-产地检疫-产检申请页</t>
+          <t>国外引种-引种检验</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>异常</t>
+          <t>正常</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>植物检疫-产地检疫-产检受理页</t>
+          <t>国外引种-综合查询</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -783,43 +783,43 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>植物检疫-产地检疫-田间调查页</t>
+          <t>疫情报告-快报</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>异常</t>
+          <t>正常</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>植物检疫-产地检疫-实验室检验页</t>
+          <t>疫情报告-月报</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>异常</t>
+          <t>正常</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>植物检疫-产地检疫-签发证书页</t>
+          <t>疫情报告-年报</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>异常</t>
+          <t>正常</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>植物检疫-产地检疫-产检查询页</t>
+          <t>检疫员-检疫员查询</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -831,7 +831,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>植物检疫-产地检疫-综合查询页</t>
+          <t>检疫员-新增检疫员</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -843,19 +843,19 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>调运检疫-检疫要求书</t>
+          <t>检疫员-检疫员管理</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>异常</t>
+          <t>正常</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>调运检疫-调检申请-产检换证</t>
+          <t>数据填报-工作平台</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -867,283 +867,283 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>调运检疫-调检申请-再次调运</t>
+          <t>数据填报-任务填报</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>异常</t>
+          <t>正常</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>调运检疫-调检申请-直接调运</t>
+          <t>数据填报-数据查询</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>异常</t>
+          <t>正常</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>调运检疫-调检受理</t>
+          <t>数据填报-数据汇总</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>异常</t>
+          <t>正常</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>调运检疫-检疫检查</t>
+          <t>数据填报-催报查询</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>异常</t>
+          <t>正常</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>调运检疫-实验室检验</t>
+          <t>数据填报-报送评价</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>异常</t>
+          <t>正常</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>调运检疫-签发证书</t>
+          <t>数据填报-填报任务一览</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>异常</t>
+          <t>正常</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>调运检疫-调检查询</t>
+          <t>数据填报-填报任务设置</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>异常</t>
+          <t>正常</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>调运检疫-综合查询</t>
+          <t>数据填报-任务审核</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>异常</t>
+          <t>正常</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>国外引种-引种申请</t>
+          <t>植保体系-植保机构信息上报</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>异常</t>
+          <t>正常</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>国外引种-引种预审</t>
+          <t>植保体系-植保人员管理-植保人员信息上报</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>异常</t>
+          <t>正常</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>国外引种-引种受理</t>
+          <t>植保体系-植保人员管理-乡镇植保人员信息上报</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>异常</t>
+          <t>正常</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>国外引种-审批签发</t>
+          <t>植保体系-植保人员管理-村级植保员信息上报</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>异常</t>
+          <t>正常</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>国外引种-引种查询</t>
+          <t>植保体系-数据审核</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>异常</t>
+          <t>正常</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>国外引种-引种跟踪</t>
+          <t>植保体系-数据查询-机构查询</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>异常</t>
+          <t>正常</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>国外引种-引种田调</t>
+          <t>植保体系-数据查询-人员查询</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>异常</t>
+          <t>正常</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>国外引种-引种检验</t>
+          <t>植保体系-数据查询-通讯录查询</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>异常</t>
+          <t>正常</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>国外引种-综合查询</t>
+          <t>植保体系-数据统计-数据统计</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>异常</t>
+          <t>正常</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>疫情报告-快报</t>
+          <t>植保体系-数据统计-汇总统计-机构信息统计</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>异常</t>
+          <t>正常</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>疫情报告-月报</t>
+          <t>植保体系-数据统计-汇总统计-植保机构统计</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>异常</t>
+          <t>正常</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>疫情报告-年报</t>
+          <t>植保体系-数据统计-汇总统计-机构类别统计</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>异常</t>
+          <t>正常</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>检疫员-检疫员查询</t>
+          <t>植保体系-数据统计-汇总统计-人员年龄统计</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>异常</t>
+          <t>正常</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>检疫员-新增检疫员</t>
+          <t>植保体系-数据统计-汇总统计-人员学历统计</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>异常</t>
+          <t>正常</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>检疫员-检疫员管理</t>
+          <t>植保体系-数据统计-汇总统计-填报进度统计</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>异常</t>
+          <t>正常</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>植物检疫-产地检疫-产检申请页</t>
+          <t>病虫防治-工作平台</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1155,79 +1155,79 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>植物检疫-产地检疫-产检受理页</t>
+          <t>病虫防治-数据填报</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>异常</t>
+          <t>正常</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>植物检疫-产地检疫-田间调查页</t>
+          <t>病虫防治-数据查询</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>异常</t>
+          <t>正常</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>植物检疫-产地检疫-实验室检验页</t>
+          <t>病虫防治-数据汇总</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>异常</t>
+          <t>正常</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>植物检疫-产地检疫-签发证书页</t>
+          <t>病虫防治-催报查询</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>异常</t>
+          <t>正常</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>植物检疫-产地检疫-产检查询页</t>
+          <t>病虫防治-填报任务设置</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>异常</t>
+          <t>正常</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>植物检疫-产地检疫-综合查询页</t>
+          <t>病虫防治-任务审核</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>异常</t>
+          <t>正常</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>调运检疫-检疫要求书</t>
+          <t>农药械-工作平台</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1239,139 +1239,139 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>调运检疫-调检申请-产检换证</t>
+          <t>农药械-统防统治</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>异常</t>
+          <t>正常</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>调运检疫-调检申请-再次调运</t>
+          <t>农药械-数据填报</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>异常</t>
+          <t>正常</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>调运检疫-调检申请-直接调运</t>
+          <t>农药械-数据查询</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>异常</t>
+          <t>正常</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>调运检疫-调检受理</t>
+          <t>农药械-数据汇总</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>异常</t>
+          <t>正常</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>调运检疫-检疫检查</t>
+          <t>农药械-催报查询</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>异常</t>
+          <t>正常</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>调运检疫-实验室检验</t>
+          <t>农药械-填报任务设置</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>异常</t>
+          <t>正常</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>调运检疫-签发证书</t>
+          <t>农药械-随时报送</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>异常</t>
+          <t>正常</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>调运检疫-调检查询</t>
+          <t>物联网-工作平台</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>异常</t>
+          <t>正常</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>调运检疫-综合查询</t>
+          <t>物联网-监测点分布</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>异常</t>
+          <t>正常</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>国外引种-引种申请</t>
+          <t>物联网-设备分布</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>异常</t>
+          <t>正常</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>国外引种-引种预审</t>
+          <t>物联网-虫量对比分析</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>异常</t>
+          <t>正常</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>国外引种-引种受理</t>
+          <t>环境气象-趋势分析</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1383,7 +1383,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>国外引种-审批签发</t>
+          <t>环境气象-实时数据列表</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1395,7 +1395,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>国外引种-引种查询</t>
+          <t>物联网-工作平台</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1407,235 +1407,235 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>国外引种-引种跟踪</t>
+          <t>物联网-监测点分布</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>异常</t>
+          <t>正常</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>国外引种-引种田调</t>
+          <t>物联网-设备分布</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>异常</t>
+          <t>正常</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>国外引种-引种检验</t>
+          <t>物联网-虫量对比分析</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>异常</t>
+          <t>正常</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>国外引种-综合查询</t>
+          <t>环境气象-趋势分析</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>异常</t>
+          <t>正常</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>疫情报告-快报</t>
+          <t>环境气象-实时数据列表</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>异常</t>
+          <t>正常</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>疫情报告-月报</t>
+          <t>环境气象-实时数据统计</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>异常</t>
+          <t>正常</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>疫情报告-年报</t>
+          <t>环境气象-逐日数据统计</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>异常</t>
+          <t>正常</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>检疫员-检疫员查询</t>
+          <t>环境气象-逐日数据列表</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>异常</t>
+          <t>正常</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>检疫员-新增检疫员</t>
+          <t>性诱监测-逐日数据统计</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>异常</t>
+          <t>正常</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>检疫员-检疫员管理</t>
+          <t>性诱监测-数据统计列表</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>异常</t>
+          <t>正常</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>植物检疫-产地检疫-产检申请页</t>
+          <t>性诱监测-识别结果统计</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>异常</t>
+          <t>正常</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>植物检疫-产地检疫-产检受理页</t>
+          <t>性诱监测-趋势分析</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>异常</t>
+          <t>正常</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>植物检疫-产地检疫-田间调查页</t>
+          <t>物联网-灯诱监测-灯诱数据分析</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>异常</t>
+          <t>正常</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>植物检疫-产地检疫-实验室检验页</t>
+          <t>物联网-灯诱监测-数据统计列表</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>异常</t>
+          <t>正常</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>植物检疫-产地检疫-签发证书页</t>
+          <t>物联网-灯诱监测-灯诱图片展示</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>异常</t>
+          <t>正常</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>植物检疫-产地检疫-产检查询页</t>
+          <t>物联网-灯诱监测-灯诱识别结果统计</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>异常</t>
+          <t>正常</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>植物检疫-产地检疫-综合查询页</t>
+          <t>物联网-灯诱监测-趋势分析</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>异常</t>
+          <t>正常</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>调运检疫-检疫要求书</t>
+          <t>物联网-病害监测-孢子监测</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>异常</t>
+          <t>正常</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>调运检疫-调检申请-产检换证</t>
+          <t>物联网-病害监测-病害GIS分析</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>异常</t>
+          <t>正常</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>调运检疫-调检申请-再次调运</t>
+          <t>物联网-物联网管理-设备管理</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -1647,7 +1647,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>调运检疫-调检申请-直接调运</t>
+          <t>物联网-物联网管理-监测点管理</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -1659,7 +1659,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>调运检疫-调检受理</t>
+          <t>物联网-视频监控-视频监控分布</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -1671,7 +1671,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>调运检疫-检疫检查</t>
+          <t>物联网-视频监控-视频图片展示</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -1683,7 +1683,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>调运检疫-实验室检验</t>
+          <t>物联网-物联网评价-设备数据管理</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -1695,7 +1695,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>调运检疫-签发证书</t>
+          <t>物联网-物联网评价-厂商考核评价-厂商维护情况</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -1707,7 +1707,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>调运检疫-调检查询</t>
+          <t>物联网-物联网评价-厂商考核评价-维护失败设备清单</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -1719,7 +1719,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>调运检疫-综合查询</t>
+          <t>物联网-高空灯监测-高空灯数据列表</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -1731,7 +1731,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>国外引种-引种申请</t>
+          <t>物联网-高空灯监测-高空灯图片</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -1743,67 +1743,67 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>国外引种-引种预审</t>
+          <t>植保统计-任务管理</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>异常</t>
+          <t>正常</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>国外引种-引种受理</t>
+          <t>植保统计-查询统计-任务查询</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>异常</t>
+          <t>正常</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>国外引种-审批签发</t>
+          <t>植保统计-查询统计-原表查询</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>异常</t>
+          <t>正常</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>国外引种-引种查询</t>
+          <t>植保统计-查询统计-杂食害虫查询</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>异常</t>
+          <t>正常</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>国外引种-引种跟踪</t>
+          <t>植保统计-任务管理</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>异常</t>
+          <t>正常</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>国外引种-引种田调</t>
+          <t>植保统计-查询统计-任务查询</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -1815,7 +1815,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>国外引种-引种检验</t>
+          <t>植保统计-查询统计-原表查询</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -1827,7 +1827,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>国外引种-综合查询</t>
+          <t>植保统计-查询统计-杂食害虫查询</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -1839,7 +1839,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>疫情报告-快报</t>
+          <t>植保统计-任务管理</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -1851,7 +1851,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>疫情报告-月报</t>
+          <t>植保统计-查询统计-任务查询</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -1863,7 +1863,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>疫情报告-年报</t>
+          <t>植保统计-查询统计-原表查询</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -1875,7 +1875,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>检疫员-检疫员查询</t>
+          <t>植保统计-查询统计-杂食害虫查询</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -1887,7 +1887,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>检疫员-新增检疫员</t>
+          <t>植保统计-任务管理</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -1899,7 +1899,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>检疫员-检疫员管理</t>
+          <t>植保统计-查询统计-任务查询</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -1911,7 +1911,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>植物检疫-产地检疫-产检申请页</t>
+          <t>植保统计-查询统计-原表查询</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -1923,7 +1923,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>植物检疫-产地检疫-产检受理页</t>
+          <t>植保统计-查询统计-杂食害虫查询</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -1935,7 +1935,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>植物检疫-产地检疫-田间调查页</t>
+          <t>植保统计-任务管理</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -1947,7 +1947,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>植物检疫-产地检疫-实验室检验页</t>
+          <t>植保统计-查询统计-任务查询</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -1959,7 +1959,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>植物检疫-产地检疫-签发证书页</t>
+          <t>植保统计-查询统计-原表查询</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -1971,7 +1971,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>植物检疫-产地检疫-产检查询页</t>
+          <t>植保统计-查询统计-杂食害虫查询</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -1983,7 +1983,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>植物检疫-产地检疫-综合查询页</t>
+          <t>病虫专题-数据分析-专题分析</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -1995,7 +1995,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>调运检疫-检疫要求书</t>
+          <t>病虫专题-数据分析-GIS分析</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -2007,7 +2007,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>调运检疫-调检申请-产检换证</t>
+          <t>病虫专题-数据分析-自定义分析</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -2019,7 +2019,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>调运检疫-调检申请-再次调运</t>
+          <t>病虫专题-数据分析-数据报告</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -2031,7 +2031,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>调运检疫-调检申请-直接调运</t>
+          <t>病虫专题-数据分析-扩展推演</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -2043,7 +2043,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>调运检疫-调检受理</t>
+          <t>病虫专题-数据分析-在线作图</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -2055,7 +2055,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>调运检疫-检疫检查</t>
+          <t>病虫专题-数据分析-定制报告</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -2067,7 +2067,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>调运检疫-实验室检验</t>
+          <t>病虫专题-数据分析-数据治理-数据地图配置</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -2079,7 +2079,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>调运检疫-签发证书</t>
+          <t>病虫专题-数据分析-数据治理-数据资源管理</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -2091,7 +2091,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>调运检疫-调检查询</t>
+          <t>病虫专题-数据分析-数据治理-数据分析配置</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -2103,7 +2103,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>调运检疫-综合查询</t>
+          <t>病虫专题-数据分析-数据治理-数据分析浏览</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -2115,7 +2115,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>国外引种-引种申请</t>
+          <t>病虫专题-数据分析-数据治理-数据资源查看</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -2127,7 +2127,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>国外引种-引种预审</t>
+          <t>病虫专题-稻飞虱</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -2139,7 +2139,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>国外引种-引种受理</t>
+          <t>病虫专题-赤霉病</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -2151,7 +2151,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>国外引种-审批签发</t>
+          <t>病虫专题-条锈病</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -2163,7 +2163,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>国外引种-引种查询</t>
+          <t>病虫专题-马铃薯晚疫病-GIS分析</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -2175,7 +2175,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>国外引种-引种跟踪</t>
+          <t>病虫专题-马铃薯晚疫病-监测期设置</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -2187,7 +2187,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>国外引种-引种田调</t>
+          <t>病虫专题-马铃薯晚疫病-侵染曲线</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -2199,7 +2199,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>国外引种-引种检验</t>
+          <t>病虫专题-马铃薯晚疫病-湿润期统计</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -2211,7 +2211,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>国外引种-综合查询</t>
+          <t>病虫专题-马铃薯晚疫病-数据查询</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -2223,7 +2223,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>疫情报告-快报</t>
+          <t>病虫专题-马铃薯晚疫病-数据统计</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -2235,7 +2235,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>疫情报告-月报</t>
+          <t>病虫专题-稻纵卷叶螟</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -2247,7 +2247,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>疫情报告-年报</t>
+          <t>办公应用-文件收发管理-收件箱</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -2259,7 +2259,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>检疫员-检疫员查询</t>
+          <t>办公应用-文件收发管理-草稿箱</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -2271,7 +2271,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>检疫员-新增检疫员</t>
+          <t>办公应用-文件收发管理-发件箱</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -2283,7 +2283,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>检疫员-检疫员管理</t>
+          <t>办公应用-辅助工具-方差分析</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -2295,7 +2295,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>植物检疫-产地检疫-产检申请页</t>
+          <t>办公应用-辅助工具-线性回归</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -2307,7 +2307,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>植物检疫-产地检疫-产检受理页</t>
+          <t>办公应用-辅助工具-T检验</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -2319,7 +2319,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>植物检疫-产地检疫-田间调查页</t>
+          <t>办公应用-辅助工具-非线性回归</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -2331,7 +2331,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>植物检疫-产地检疫-实验室检验页</t>
+          <t>办公应用-辅助工具-多因方差分析</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -2343,7 +2343,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>植物检疫-产地检疫-签发证书页</t>
+          <t>办公应用-病虫害情报库-情报上传</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -2355,7 +2355,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>植物检疫-产地检疫-产检查询页</t>
+          <t>办公应用-病虫害情报库-情报浏览</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -2367,7 +2367,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>植物检疫-产地检疫-综合查询页</t>
+          <t>办公应用-病虫害情报库-情报统计</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -2379,7 +2379,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>调运检疫-检疫要求书</t>
+          <t>办公应用-APP新闻管理_新闻浏览</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -2391,7 +2391,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>调运检疫-调检申请-产检换证</t>
+          <t>办公应用-APP新闻管理_新闻上传</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -2403,7 +2403,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>调运检疫-调检申请-再次调运</t>
+          <t>办公应用-通知公告-公告管理</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -2415,7 +2415,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>调运检疫-调检申请-直接调运</t>
+          <t>办公应用-通知公告-公告查阅</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -2427,7 +2427,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>调运检疫-调检受理</t>
+          <t>知识库-工作平台</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -2439,7 +2439,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>调运检疫-检疫检查</t>
+          <t>知识库-病虫害知识库-知识浏览</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -2451,7 +2451,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>调运检疫-实验室检验</t>
+          <t>知识库-病虫害知识库-知识维护</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -2463,7 +2463,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>调运检疫-签发证书</t>
+          <t>知识库-植保知识库-知识浏览</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -2475,7 +2475,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>调运检疫-调检查询</t>
+          <t>知识库-植保知识库-知识审核</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -2487,7 +2487,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>调运检疫-综合查询</t>
+          <t>知识库-植保知识库-知识上传</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -2499,7 +2499,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>国外引种-引种申请</t>
+          <t>知识库-资料库</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -2511,7 +2511,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>国外引种-引种预审</t>
+          <t>知识库-作物知识库-知识浏览</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -2523,7 +2523,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>国外引种-引种受理</t>
+          <t>知识库-作物知识库-知识维护</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -2535,7 +2535,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>国外引种-审批签发</t>
+          <t>视频会议-会议管理</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -2547,7 +2547,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>国外引种-引种查询</t>
+          <t>视频会议-我的会议</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -2559,7 +2559,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>国外引种-引种跟踪</t>
+          <t>指挥调度-病虫测防大屏</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -2571,7 +2571,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>国外引种-引种田调</t>
+          <t>指挥调度-植物检疫大屏</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -2583,7 +2583,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>国外引种-引种检验</t>
+          <t>指挥调度-物联网大屏</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -2595,7 +2595,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>国外引种-综合查询</t>
+          <t>指挥调度-植保体系大屏</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -2607,7 +2607,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>疫情报告-快报</t>
+          <t>指挥调度-绿色示范区大屏</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -2619,7 +2619,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>疫情报告-月报</t>
+          <t>指挥调度-绿色示范区大屏</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -2631,7 +2631,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>疫情报告-年报</t>
+          <t>昆虫雷达大屏</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -2643,1486 +2643,10 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>检疫员-检疫员查询</t>
+          <t>数字图库</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>检疫员-新增检疫员</t>
-        </is>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>检疫员-检疫员管理</t>
-        </is>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>病虫防治-工作平台</t>
-        </is>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>病虫防治-数据填报</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>病虫防治-数据查询</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>病虫防治-数据汇总</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>病虫防治-催报查询</t>
-        </is>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>病虫防治-填报任务设置</t>
-        </is>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>病虫防治-任务审核</t>
-        </is>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>农药械-工作平台</t>
-        </is>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>农药械-统防统治</t>
-        </is>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>农药械-数据填报</t>
-        </is>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>农药械-数据查询</t>
-        </is>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>农药械-数据汇总</t>
-        </is>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>农药械-催报查询</t>
-        </is>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>农药械-填报任务设置</t>
-        </is>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>农药械-随时报送</t>
-        </is>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>物联网-工作平台</t>
-        </is>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>物联网-监测点分布</t>
-        </is>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>物联网-设备分布</t>
-        </is>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>物联网-虫量对比分析</t>
-        </is>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>环境气象-趋势分析</t>
-        </is>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>环境气象-实时数据列表</t>
-        </is>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>物联网-工作平台</t>
-        </is>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>物联网-监测点分布</t>
-        </is>
-      </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>物联网-设备分布</t>
-        </is>
-      </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>物联网-虫量对比分析</t>
-        </is>
-      </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>环境气象-趋势分析</t>
-        </is>
-      </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>环境气象-实时数据列表</t>
-        </is>
-      </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>物联网-工作平台</t>
-        </is>
-      </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>物联网-监测点分布</t>
-        </is>
-      </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>物联网-设备分布</t>
-        </is>
-      </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>物联网-虫量对比分析</t>
-        </is>
-      </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>环境气象-趋势分析</t>
-        </is>
-      </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>环境气象-实时数据列表</t>
-        </is>
-      </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="inlineStr">
-        <is>
-          <t>物联网-工作平台</t>
-        </is>
-      </c>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="inlineStr">
-        <is>
-          <t>物联网-监测点分布</t>
-        </is>
-      </c>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t>物联网-设备分布</t>
-        </is>
-      </c>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>物联网-虫量对比分析</t>
-        </is>
-      </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t>环境气象-趋势分析</t>
-        </is>
-      </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t>环境气象-实时数据列表</t>
-        </is>
-      </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t>物联网-工作平台</t>
-        </is>
-      </c>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t>物联网-监测点分布</t>
-        </is>
-      </c>
-      <c r="B227" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t>物联网-设备分布</t>
-        </is>
-      </c>
-      <c r="B228" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>物联网-虫量对比分析</t>
-        </is>
-      </c>
-      <c r="B229" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>环境气象-趋势分析</t>
-        </is>
-      </c>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>环境气象-实时数据列表</t>
-        </is>
-      </c>
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="inlineStr">
-        <is>
-          <t>植保统计-任务管理</t>
-        </is>
-      </c>
-      <c r="B232" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t>植保统计-查询统计-任务查询</t>
-        </is>
-      </c>
-      <c r="B233" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="inlineStr">
-        <is>
-          <t>植保统计-查询统计-原表查询</t>
-        </is>
-      </c>
-      <c r="B234" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="inlineStr">
-        <is>
-          <t>植保统计-查询统计-杂食害虫查询</t>
-        </is>
-      </c>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="inlineStr">
-        <is>
-          <t>植保统计-任务管理</t>
-        </is>
-      </c>
-      <c r="B236" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="inlineStr">
-        <is>
-          <t>植保统计-查询统计-任务查询</t>
-        </is>
-      </c>
-      <c r="B237" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="inlineStr">
-        <is>
-          <t>植保统计-查询统计-原表查询</t>
-        </is>
-      </c>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="inlineStr">
-        <is>
-          <t>植保统计-查询统计-杂食害虫查询</t>
-        </is>
-      </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="inlineStr">
-        <is>
-          <t>植保统计-任务管理</t>
-        </is>
-      </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="inlineStr">
-        <is>
-          <t>植保统计-查询统计-任务查询</t>
-        </is>
-      </c>
-      <c r="B241" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="inlineStr">
-        <is>
-          <t>植保统计-查询统计-原表查询</t>
-        </is>
-      </c>
-      <c r="B242" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="inlineStr">
-        <is>
-          <t>植保统计-查询统计-杂食害虫查询</t>
-        </is>
-      </c>
-      <c r="B243" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="inlineStr">
-        <is>
-          <t>植保统计-任务管理</t>
-        </is>
-      </c>
-      <c r="B244" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="inlineStr">
-        <is>
-          <t>植保统计-查询统计-任务查询</t>
-        </is>
-      </c>
-      <c r="B245" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="inlineStr">
-        <is>
-          <t>植保统计-查询统计-原表查询</t>
-        </is>
-      </c>
-      <c r="B246" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="inlineStr">
-        <is>
-          <t>植保统计-查询统计-杂食害虫查询</t>
-        </is>
-      </c>
-      <c r="B247" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="inlineStr">
-        <is>
-          <t>植保统计-任务管理</t>
-        </is>
-      </c>
-      <c r="B248" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="inlineStr">
-        <is>
-          <t>植保统计-查询统计-任务查询</t>
-        </is>
-      </c>
-      <c r="B249" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="inlineStr">
-        <is>
-          <t>植保统计-查询统计-原表查询</t>
-        </is>
-      </c>
-      <c r="B250" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="inlineStr">
-        <is>
-          <t>植保统计-查询统计-杂食害虫查询</t>
-        </is>
-      </c>
-      <c r="B251" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="inlineStr">
-        <is>
-          <t>病虫专题-数据分析-专题分析</t>
-        </is>
-      </c>
-      <c r="B252" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="inlineStr">
-        <is>
-          <t>病虫专题-数据分析-GIS分析</t>
-        </is>
-      </c>
-      <c r="B253" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" t="inlineStr">
-        <is>
-          <t>病虫专题-数据分析-自定义分析</t>
-        </is>
-      </c>
-      <c r="B254" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" t="inlineStr">
-        <is>
-          <t>病虫专题-数据分析-数据报告</t>
-        </is>
-      </c>
-      <c r="B255" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" t="inlineStr">
-        <is>
-          <t>病虫专题-数据分析-扩展推演</t>
-        </is>
-      </c>
-      <c r="B256" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" t="inlineStr">
-        <is>
-          <t>病虫专题-数据分析-在线作图</t>
-        </is>
-      </c>
-      <c r="B257" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" t="inlineStr">
-        <is>
-          <t>病虫专题-数据分析-定制报告</t>
-        </is>
-      </c>
-      <c r="B258" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" t="inlineStr">
-        <is>
-          <t>病虫专题-数据分析-数据治理-数据地图配置</t>
-        </is>
-      </c>
-      <c r="B259" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" t="inlineStr">
-        <is>
-          <t>病虫专题-数据分析-数据治理-数据资源管理</t>
-        </is>
-      </c>
-      <c r="B260" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" t="inlineStr">
-        <is>
-          <t>病虫专题-数据分析-数据治理-数据分析配置</t>
-        </is>
-      </c>
-      <c r="B261" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="inlineStr">
-        <is>
-          <t>病虫专题-数据分析-数据治理-数据分析浏览</t>
-        </is>
-      </c>
-      <c r="B262" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="inlineStr">
-        <is>
-          <t>病虫专题-数据分析-数据治理-数据资源查看</t>
-        </is>
-      </c>
-      <c r="B263" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" t="inlineStr">
-        <is>
-          <t>病虫专题-稻飞虱</t>
-        </is>
-      </c>
-      <c r="B264" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="inlineStr">
-        <is>
-          <t>病虫专题-赤霉病</t>
-        </is>
-      </c>
-      <c r="B265" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="inlineStr">
-        <is>
-          <t>病虫专题-条锈病</t>
-        </is>
-      </c>
-      <c r="B266" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="inlineStr">
-        <is>
-          <t>病虫专题-马铃薯晚疫病-GIS分析</t>
-        </is>
-      </c>
-      <c r="B267" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="inlineStr">
-        <is>
-          <t>病虫专题-马铃薯晚疫病-监测期设置</t>
-        </is>
-      </c>
-      <c r="B268" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="inlineStr">
-        <is>
-          <t>病虫专题-马铃薯晚疫病-侵染曲线</t>
-        </is>
-      </c>
-      <c r="B269" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="inlineStr">
-        <is>
-          <t>病虫专题-马铃薯晚疫病-湿润期统计</t>
-        </is>
-      </c>
-      <c r="B270" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="inlineStr">
-        <is>
-          <t>病虫专题-马铃薯晚疫病-数据查询</t>
-        </is>
-      </c>
-      <c r="B271" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="inlineStr">
-        <is>
-          <t>病虫专题-马铃薯晚疫病-数据统计</t>
-        </is>
-      </c>
-      <c r="B272" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="inlineStr">
-        <is>
-          <t>病虫专题-稻纵卷叶螟</t>
-        </is>
-      </c>
-      <c r="B273" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="inlineStr">
-        <is>
-          <t>办公应用-文件收发管理-收件箱</t>
-        </is>
-      </c>
-      <c r="B274" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" t="inlineStr">
-        <is>
-          <t>办公应用-文件收发管理-草稿箱</t>
-        </is>
-      </c>
-      <c r="B275" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="inlineStr">
-        <is>
-          <t>办公应用-文件收发管理-发件箱</t>
-        </is>
-      </c>
-      <c r="B276" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="inlineStr">
-        <is>
-          <t>办公应用-辅助工具-方差分析</t>
-        </is>
-      </c>
-      <c r="B277" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="inlineStr">
-        <is>
-          <t>办公应用-辅助工具-线性回归</t>
-        </is>
-      </c>
-      <c r="B278" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="inlineStr">
-        <is>
-          <t>办公应用-辅助工具-T检验</t>
-        </is>
-      </c>
-      <c r="B279" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="inlineStr">
-        <is>
-          <t>办公应用-辅助工具-非线性回归</t>
-        </is>
-      </c>
-      <c r="B280" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="inlineStr">
-        <is>
-          <t>办公应用-辅助工具-多因方差分析</t>
-        </is>
-      </c>
-      <c r="B281" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="inlineStr">
-        <is>
-          <t>办公应用-病虫害情报库-情报上传</t>
-        </is>
-      </c>
-      <c r="B282" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="inlineStr">
-        <is>
-          <t>办公应用-病虫害情报库-情报浏览</t>
-        </is>
-      </c>
-      <c r="B283" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="inlineStr">
-        <is>
-          <t>办公应用-病虫害情报库-情报统计</t>
-        </is>
-      </c>
-      <c r="B284" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="inlineStr">
-        <is>
-          <t>办公应用-APP新闻管理_新闻浏览</t>
-        </is>
-      </c>
-      <c r="B285" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="inlineStr">
-        <is>
-          <t>办公应用-APP新闻管理_新闻上传</t>
-        </is>
-      </c>
-      <c r="B286" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="inlineStr">
-        <is>
-          <t>办公应用-通知公告-公告管理</t>
-        </is>
-      </c>
-      <c r="B287" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="inlineStr">
-        <is>
-          <t>办公应用-通知公告-公告查阅</t>
-        </is>
-      </c>
-      <c r="B288" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="inlineStr">
-        <is>
-          <t>知识库-工作平台</t>
-        </is>
-      </c>
-      <c r="B289" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="inlineStr">
-        <is>
-          <t>知识库-病虫害知识库-知识浏览</t>
-        </is>
-      </c>
-      <c r="B290" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="inlineStr">
-        <is>
-          <t>知识库-病虫害知识库-知识维护</t>
-        </is>
-      </c>
-      <c r="B291" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="inlineStr">
-        <is>
-          <t>知识库-植保知识库-知识浏览</t>
-        </is>
-      </c>
-      <c r="B292" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="inlineStr">
-        <is>
-          <t>知识库-植保知识库-知识审核</t>
-        </is>
-      </c>
-      <c r="B293" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="inlineStr">
-        <is>
-          <t>知识库-植保知识库-知识上传</t>
-        </is>
-      </c>
-      <c r="B294" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" t="inlineStr">
-        <is>
-          <t>知识库-资料库</t>
-        </is>
-      </c>
-      <c r="B295" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="inlineStr">
-        <is>
-          <t>知识库-作物知识库-知识浏览</t>
-        </is>
-      </c>
-      <c r="B296" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="inlineStr">
-        <is>
-          <t>知识库-作物知识库-知识维护</t>
-        </is>
-      </c>
-      <c r="B297" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="inlineStr">
-        <is>
-          <t>视频会议-会议管理</t>
-        </is>
-      </c>
-      <c r="B298" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="inlineStr">
-        <is>
-          <t>视频会议-我的会议</t>
-        </is>
-      </c>
-      <c r="B299" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="inlineStr">
-        <is>
-          <t>指挥调度-病虫测防大屏</t>
-        </is>
-      </c>
-      <c r="B300" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="inlineStr">
-        <is>
-          <t>指挥调度-植物检疫大屏</t>
-        </is>
-      </c>
-      <c r="B301" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="inlineStr">
-        <is>
-          <t>指挥调度-物联网大屏</t>
-        </is>
-      </c>
-      <c r="B302" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="inlineStr">
-        <is>
-          <t>指挥调度-植保体系大屏</t>
-        </is>
-      </c>
-      <c r="B303" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" t="inlineStr">
-        <is>
-          <t>指挥调度-绿色示范区大屏</t>
-        </is>
-      </c>
-      <c r="B304" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" t="inlineStr">
-        <is>
-          <t>指挥调度-绿色示范区大屏</t>
-        </is>
-      </c>
-      <c r="B305" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="inlineStr">
-        <is>
-          <t>昆虫雷达大屏</t>
-        </is>
-      </c>
-      <c r="B306" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" t="inlineStr">
-        <is>
-          <t>数字图库</t>
-        </is>
-      </c>
-      <c r="B307" t="inlineStr">
         <is>
           <t>异常</t>
         </is>
